--- a/taylor/taylor_chart_fit_exp.xlsx
+++ b/taylor/taylor_chart_fit_exp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294032FF-D483-EA4E-A396-D6E5D81CFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B590A20-FA88-F640-A6F4-37131C47A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" activeTab="1" xr2:uid="{364F5B5D-917A-DF4A-8B57-5A775E4AE717}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="18700" xr2:uid="{364F5B5D-917A-DF4A-8B57-5A775E4AE717}"/>
   </bookViews>
   <sheets>
-    <sheet name="l_t_inv" sheetId="1" r:id="rId1"/>
-    <sheet name="l_t" sheetId="2" r:id="rId2"/>
-    <sheet name="s_t" sheetId="3" r:id="rId3"/>
+    <sheet name="long_term_inverse" sheetId="1" r:id="rId1"/>
+    <sheet name="long_term" sheetId="2" r:id="rId2"/>
+    <sheet name="short_term" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987005E-B81F-A04E-B7B2-0204B5A37810}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EC38E3-1E1B-1640-88B5-DE2E2AB21D1B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
